--- a/doc/const_position.xlsx
+++ b/doc/const_position.xlsx
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -459,11 +459,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -505,7 +505,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>3</v>
+        <v>1004</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>4</v>
+        <v>1005</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5</v>
+        <v>1006</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>6</v>
+        <v>1007</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -572,7 +572,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -590,10 +590,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -601,10 +601,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>2003</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>2004</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>2005</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>2006</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -664,15 +664,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,93 +680,72 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>30002</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>30003</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>30004</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>30005</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>30006</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
